--- a/result.xlsx
+++ b/result.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Trademark Name</t>
   </si>
@@ -34,37 +34,22 @@
     <t>Correspondent</t>
   </si>
   <si>
-    <t>GREEN STREET FROGS</t>
+    <t>GRIDPOINT ENERGY MANAGER</t>
   </si>
   <si>
-    <t>77370568</t>
+    <t>77354079</t>
   </si>
   <si>
-    <t>3584334</t>
+    <t>3715936</t>
   </si>
   <si>
     <t>LIVE/REGISTRATION/Issued and Active</t>
   </si>
   <si>
-    <t>028 - Primary Class</t>
+    <t>009 - Primary Class</t>
   </si>
   <si>
-    <t>karen@greentreetfrogs.com - свободен</t>
-  </si>
-  <si>
-    <t>PHARMACY AUDIT ASSISTANCE SERVICE PAAS NATIONAL</t>
-  </si>
-  <si>
-    <t>77370563</t>
-  </si>
-  <si>
-    <t>3491971</t>
-  </si>
-  <si>
-    <t>035 - Primary Class</t>
-  </si>
-  <si>
-    <t>bwptotm@bannerwitcoff.com - занят</t>
+    <t>docketing@finnegan.com - занят</t>
   </si>
 </sst>
 </file>
@@ -110,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -162,29 +147,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
